--- a/Data/aearep-1406/candidatepackages.xlsx
+++ b/Data/aearep-1406/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="88">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -22,21 +22,18 @@
     <t>outreg2</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
     <t>reghdfe</t>
   </si>
   <si>
     <t>ftools</t>
   </si>
   <si>
+    <t>coefplot</t>
+  </si>
+  <si>
     <t>unique</t>
   </si>
   <si>
-    <t>coefplot</t>
-  </si>
-  <si>
     <t>diff</t>
   </si>
   <si>
@@ -52,43 +49,40 @@
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
+    <t>title</t>
   </si>
   <si>
     <t>project</t>
   </si>
   <si>
+    <t>cluster</t>
+  </si>
+  <si>
     <t>ice</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>cluster</t>
-  </si>
-  <si>
     <t>split</t>
   </si>
   <si>
+    <t>white</t>
+  </si>
+  <si>
     <t>rev</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
     <t>hbar</t>
   </si>
   <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>art</t>
   </si>
   <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>lars</t>
-  </si>
-  <si>
-    <t>median</t>
+    <t>bys</t>
   </si>
   <si>
     <t>screen</t>
@@ -97,39 +91,30 @@
     <t>cv</t>
   </si>
   <si>
-    <t>bys</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>mc</t>
+  </si>
+  <si>
     <t>er</t>
   </si>
   <si>
-    <t>mc</t>
-  </si>
-  <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
-    <t>stop</t>
+    <t>head</t>
   </si>
   <si>
     <t>tr</t>
   </si>
   <si>
-    <t>head</t>
-  </si>
-  <si>
     <t>usd</t>
   </si>
   <si>
+    <t>try</t>
+  </si>
+  <si>
     <t>mail</t>
   </si>
   <si>
@@ -151,9 +136,6 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1406</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-1406/121821/Replication package</t>
   </si>
   <si>
@@ -196,18 +178,9 @@
     <t>/home/lv39/Workspace/AEA/all//aearep-1406/121821/Replication package/Results</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1406/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
-  </si>
-  <si>
     <t>configuration_code.do</t>
   </si>
   <si>
@@ -305,9 +278,6 @@
   </si>
   <si>
     <t>table_D8.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -351,7 +321,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D36"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -359,13 +329,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
@@ -373,7 +343,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -385,7 +355,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -397,7 +367,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -409,7 +379,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -421,7 +391,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -433,7 +403,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -445,7 +415,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -457,7 +427,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>98</v>
+        <v>197</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -469,7 +439,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -481,7 +451,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>206</v>
+        <v>293</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -493,10 +463,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>267</v>
+        <v>499</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D12"/>
     </row>
@@ -505,10 +475,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>279</v>
+        <v>547</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.18082644045352936</v>
       </c>
       <c r="D13"/>
     </row>
@@ -517,10 +487,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>503</v>
+        <v>563</v>
       </c>
       <c r="C14">
-        <v>0.16677719354629517</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D14"/>
     </row>
@@ -529,10 +499,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>535</v>
+        <v>589</v>
       </c>
       <c r="C15">
-        <v>0.17738726735115051</v>
+        <v>0.19471074640750885</v>
       </c>
       <c r="D15"/>
     </row>
@@ -541,10 +511,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>565</v>
+        <v>632</v>
       </c>
       <c r="C16">
-        <v>0.18733422458171844</v>
+        <v>0.20892561972141266</v>
       </c>
       <c r="D16"/>
     </row>
@@ -553,10 +523,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>566</v>
+        <v>712</v>
       </c>
       <c r="C17">
-        <v>0.18766577541828156</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D17"/>
     </row>
@@ -565,10 +535,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>606</v>
+        <v>746</v>
       </c>
       <c r="C18">
-        <v>0.20092837512493134</v>
+        <v>0.24661156535148621</v>
       </c>
       <c r="D18"/>
     </row>
@@ -577,10 +547,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>698</v>
+        <v>889</v>
       </c>
       <c r="C19">
-        <v>0.23143236339092255</v>
+        <v>0.29388430714607239</v>
       </c>
       <c r="D19"/>
     </row>
@@ -589,10 +559,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>745</v>
+        <v>955</v>
       </c>
       <c r="C20">
-        <v>0.24701590836048126</v>
+        <v>0.31570246815681458</v>
       </c>
       <c r="D20"/>
     </row>
@@ -601,10 +571,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>868</v>
+        <v>998</v>
       </c>
       <c r="C21">
-        <v>0.28779840469360352</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D21"/>
     </row>
@@ -613,10 +583,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>942</v>
+        <v>1011</v>
       </c>
       <c r="C22">
-        <v>0.31233420968055725</v>
+        <v>0.33421486616134644</v>
       </c>
       <c r="D22"/>
     </row>
@@ -625,10 +595,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>985</v>
+        <v>1306</v>
       </c>
       <c r="C23">
-        <v>0.32659152150154114</v>
+        <v>0.43173554539680481</v>
       </c>
       <c r="D23"/>
     </row>
@@ -637,10 +607,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1124</v>
+        <v>1474</v>
       </c>
       <c r="C24">
-        <v>0.37267905473709106</v>
+        <v>0.48727273941040039</v>
       </c>
       <c r="D24"/>
     </row>
@@ -649,10 +619,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1133</v>
+        <v>1503</v>
       </c>
       <c r="C25">
-        <v>0.37566313147544861</v>
+        <v>0.49685949087142944</v>
       </c>
       <c r="D25"/>
     </row>
@@ -661,10 +631,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1420</v>
+        <v>1678</v>
       </c>
       <c r="C26">
-        <v>0.47082227468490601</v>
+        <v>0.5547107458114624</v>
       </c>
       <c r="D26"/>
     </row>
@@ -673,10 +643,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1424</v>
+        <v>1724</v>
       </c>
       <c r="C27">
-        <v>0.47214853763580322</v>
+        <v>0.56991738080978394</v>
       </c>
       <c r="D27"/>
     </row>
@@ -685,10 +655,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1472</v>
+        <v>1767</v>
       </c>
       <c r="C28">
-        <v>0.48806366324424744</v>
+        <v>0.58413225412368774</v>
       </c>
       <c r="D28"/>
     </row>
@@ -697,10 +667,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1621</v>
+        <v>1904</v>
       </c>
       <c r="C29">
-        <v>0.53746682405471802</v>
+        <v>0.62942147254943848</v>
       </c>
       <c r="D29"/>
     </row>
@@ -709,10 +679,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1753</v>
+        <v>1971</v>
       </c>
       <c r="C30">
-        <v>0.5812334418296814</v>
+        <v>0.65157026052474976</v>
       </c>
       <c r="D30"/>
     </row>
@@ -721,10 +691,10 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1755</v>
+        <v>1975</v>
       </c>
       <c r="C31">
-        <v>0.58189654350280762</v>
+        <v>0.6528925895690918</v>
       </c>
       <c r="D31"/>
     </row>
@@ -733,10 +703,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1798</v>
+        <v>2008</v>
       </c>
       <c r="C32">
-        <v>0.5961538553237915</v>
+        <v>0.66380167007446289</v>
       </c>
       <c r="D32"/>
     </row>
@@ -745,10 +715,10 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1817</v>
+        <v>2057</v>
       </c>
       <c r="C33">
-        <v>0.60245358943939209</v>
+        <v>0.68000000715255737</v>
       </c>
       <c r="D33"/>
     </row>
@@ -757,10 +727,10 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1859</v>
+        <v>2074</v>
       </c>
       <c r="C34">
-        <v>0.61637932062149048</v>
+        <v>0.68561983108520508</v>
       </c>
       <c r="D34"/>
     </row>
@@ -769,10 +739,10 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1890</v>
+        <v>2501</v>
       </c>
       <c r="C35">
-        <v>0.62665784358978271</v>
+        <v>0.82677686214447021</v>
       </c>
       <c r="D35"/>
     </row>
@@ -781,72 +751,12 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1951</v>
+        <v>2936</v>
       </c>
       <c r="C36">
-        <v>0.64688330888748169</v>
+        <v>0.97057849168777466</v>
       </c>
       <c r="D36"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>2133</v>
-      </c>
-      <c r="C37">
-        <v>0.70722812414169312</v>
-      </c>
-      <c r="D37"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>2217</v>
-      </c>
-      <c r="C38">
-        <v>0.73507958650588989</v>
-      </c>
-      <c r="D38"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>2239</v>
-      </c>
-      <c r="C39">
-        <v>0.7423740029335022</v>
-      </c>
-      <c r="D39"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>2523</v>
-      </c>
-      <c r="C40">
-        <v>0.83653843402862549</v>
-      </c>
-      <c r="D40"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>2928</v>
-      </c>
-      <c r="C41">
-        <v>0.97082227468490601</v>
-      </c>
-      <c r="D41"/>
     </row>
   </sheetData>
 </worksheet>
@@ -854,303 +764,279 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B34"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
